--- a/medicine/Enfance/David_McKee/David_McKee.xlsx
+++ b/medicine/Enfance/David_McKee/David_McKee.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">David McKee, né le 2 janvier 1935 à Tavistock, dans le Devon, et mort le 6 avril 2022 à Nice, est un auteur et illustrateur britannique. Il est principalement connu pour être à l'origine de la série pour enfants Elmer un éléphant multicolore dont le premier ouvrage a été édité en 1968. Il a également publié des ouvrages sous le pseudonyme Violet Easton.
 </t>
@@ -513,15 +525,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carrière
-David McKee nait en 1935[1] à Tavistock, dans le comté de Devon, en Angleterre. Après être allé à l'école primaire locale, il rejoint l'université d'Art de Plymouth. Étudiant, il vend ses dessins dans divers journaux anglais. Après ses études, il continue à vendre des dessins, tout en faisant de la peinture. Il dessine des bandes dessinées pour, entre autres, Punch, Reader's Digest, et The Times Higher Education Supplement.
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David McKee nait en 1935 à Tavistock, dans le comté de Devon, en Angleterre. Après être allé à l'école primaire locale, il rejoint l'université d'Art de Plymouth. Étudiant, il vend ses dessins dans divers journaux anglais. Après ses études, il continue à vendre des dessins, tout en faisant de la peinture. Il dessine des bandes dessinées pour, entre autres, Punch, Reader's Digest, et The Times Higher Education Supplement.
 Il trouve très vite sa voie dans les livres pour enfants qu'il écrit et illustre. Son premier livre est publié en noir et blanc par Dobson en 1964. Il s'agit d'une histoire qu'il avait souvent racontée à l'université, Two Can Toucan (Toucan deux bidons). Le protagoniste, un oiseau sud-américain, se fait remarquer par sa capacité de porter deux bidons de peinture sur son bec énorme. Le livre a été publié par Abelard-Schuman en 1964; en 1985, une édition est sortie avec de nouvelles illustrations de McKee. Cette édition a été rééditée en 2001 par Andersen Press.
-Dans les années 1980, David McKee est choisi par Michael Bond, l'auteur de la série l'Ours Paddington, pour illustrer une nouvelle série de livres d'images pour les jeunes lecteurs[2].
+Dans les années 1980, David McKee est choisi par Michael Bond, l'auteur de la série l'Ours Paddington, pour illustrer une nouvelle série de livres d'images pour les jeunes lecteurs.
 Son talent d'illustrateur est mondialement reconnu. La série Elmer l'éléphant fait l'objet de tout un merchandising commercialisé par Petit Jour Paris : crayons, pin's, broche, parapluie, carnet, valises, peluches, puzzles, trousse, porte monnaie, bavoir, vaisselle, etc..
-Il est l'artiste sélectionné pour représenter son pays, pour le Prix Hans-Christian-Andersen 2022, dans la catégorie Illustration[3].
-Vie privée et mort
-Il partagea sa vie entre Nice et Paris[4].
-Il meurt le 6 avril 2022 à l'âge de 87 ans dans sa propriété de Nice[5],[6], entouré de sa famille, des suites d'une « courte maladie ».
+Il est l'artiste sélectionné pour représenter son pays, pour le Prix Hans-Christian-Andersen 2022, dans la catégorie Illustration.
 </t>
         </is>
       </c>
@@ -547,12 +561,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Films</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La BBC a adapté quelques-uns des livres de McKee pour la télévision et elle l'a sondé sur d'éventuelles adaptations cinématographiques, négociation menant aux premiers films de McKee dont une série ayant comme vedette Mr Benn, le célèbre personnage créé par McKee.
+          <t>Vie privée et mort</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il partagea sa vie entre Nice et Paris.
+Il meurt le 6 avril 2022 à l'âge de 87 ans dans sa propriété de Nice entouré de sa famille, des suites d'une « courte maladie ».
 </t>
         </is>
       </c>
@@ -578,13 +599,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Films</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La BBC a adapté quelques-uns des livres de McKee pour la télévision et elle l'a sondé sur d'éventuelles adaptations cinématographiques, négociation menant aux premiers films de McKee dont une série ayant comme vedette Mr Benn, le célèbre personnage créé par McKee.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>David_McKee</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/David_McKee</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Série "Elmer l'éléphant"
-Elmer (Elmer, 1989), trad. Élisabeth Duval, Kaléidoscope, 1989, 32 p.  (ISBN 2-87767-009-0). Rééd. École des loisirs, coll. "Lutin poche", 1990, 33 p.  (ISBN 2-211-01944-7 et 978-2-211-01944-6)
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série "Elmer l'éléphant"</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Elmer (Elmer, 1989), trad. Élisabeth Duval, Kaléidoscope, 1989, 32 p.  (ISBN 2-87767-009-0). Rééd. École des loisirs, coll. "Lutin poche", 1990, 33 p.  (ISBN 2-211-01944-7 et 978-2-211-01944-6)
 Elmer, encore et encore... (Elmer Again, 1991), trad. Élisabeth Duval, Kaléidoscope, 1991, 26 p.  (ISBN 2-87767-038-4). Rééd. École des loisirs, coll. "Lutin poche", 1992, 29 p.  (ISBN 2-211-02169-7 et 978-2-211-02169-2)
 Elmer et les chasseurs (Elmer on stilts, 1993), trad. Élisabeth Duval, Kaléidoscope, 1993, 40 p.  (ISBN 2-87767-094-5). Rééd. École des loisirs, coll. "Lutin poche", 1994, 40 p.  (ISBN 2-211-01773-8 et 978-2-211-01773-2)
 La Météo d'Elmer, trad. Élisabeth Duval, Kaléidoscope, 1994, 16 p.  (ISBN 2-87767-127-5)
@@ -602,9 +661,43 @@
 Elmer et tante Zelda (Elmer and Aunt Zelda, 2006), trad. Élisabeth Duval, Kaléidoscope, 2006, 32 p. Rééd. École des loisirs, coll. "Lutin poche", 2008, 40 p.  (ISBN 978-2-211-09313-2)
 Elmer et le nounours perdu, Kaléidoscope, 1999, 32 p. Rééd. École des loisirs, coll. "Lutin poche", 2000, 40 p.  (ISBN 978-2-211-05616-8)
 Elmer et l'étranger (Elmer and the Stranger, 2000), trad. Élisabeth Duval, Kaléidoscope, 2000, 32 p. Rééd. École des loisirs, coll. "Lutin poche", 2002, 40 p.  (ISBN 978-2-211-06439-2)
-Elmer et le vent (Elmer and the Wind, 1997), trad. Élisabeth Duval, Kaléidoscope, 1999, 32 p. Rééd. École des loisirs, coll. "Lutin poche", 1999, 40 p.  (ISBN 978-2-211-05286-3)
-Série "Le Roi Rollo"
-Le Roi Rollo et la vaisselle sale, Flammarion, 1981, 32 p.  (ISBN 2-08-171035-8)
+Elmer et le vent (Elmer and the Wind, 1997), trad. Élisabeth Duval, Kaléidoscope, 1999, 32 p. Rééd. École des loisirs, coll. "Lutin poche", 1999, 40 p.  (ISBN 978-2-211-05286-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>David_McKee</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/David_McKee</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série "Le Roi Rollo"</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Roi Rollo et la vaisselle sale, Flammarion, 1981, 32 p.  (ISBN 2-08-171035-8)
 Le Roi Rollo et la carte de vœux, Flammarion, 1981, 32 p.  (ISBN 2-08-171034-X)
 Le Roi Rollo et l'arbre du jardin, Flammarion, 1981, 32 p.  (ISBN 2-08-171036-6)
 Le Roi Rollo et la miche de pain (King Rollo and the bread), trad. Catherine Deloraine, Flammarion, 1981, 24 p.  (ISBN 2-08-171033-1)
@@ -614,12 +707,80 @@
 Le Petit Déjeuner du roi Rollo, Calligram, coll. "Petite bibliothèque Calligram Benjamin" n° 2, 1995, 32 p.  (ISBN 2-88445-256-7)
 Le Désordre du roi Rollo, Calligram, coll. "Petite bibliothèque Calligram Benjamin" n° 3, 1995, 32 p.  (ISBN 2-88445-258-3)
 Le roi Rollo et le chien, Calligram, coll. "Petite bibliothèque Calligram Benjamin" n° 5, 1995, 32 p.  (ISBN 2-88445-261-3)
-Le roi Rollo et les masques, Calligram, coll. "Petite bibliothèque Calligram Benjamin" n° 6, 1995, 32 p.  (ISBN 2-88445-262-1)
-Série "Monsieur Benn"
-Monsieur Benn, trad. Valérie Dayre, Joie de lire, 2014, 44 p.  (ISBN 978-2-88908-229-2)
-Monsieur Benn, gladiateur, trad. Élisabeth Duval, Kaléidoscope, 2002, 32 p.  (ISBN 2-87767-346-4)
-Autres livres
-Le Magicien et le sorcier (The Magician and the Sorcerer, 1974), Flammarion, 1974, 32 p.  (ISBN 2-08-170604-0)
+Le roi Rollo et les masques, Calligram, coll. "Petite bibliothèque Calligram Benjamin" n° 6, 1995, 32 p.  (ISBN 2-88445-262-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>David_McKee</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/David_McKee</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série "Monsieur Benn"</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Monsieur Benn, trad. Valérie Dayre, Joie de lire, 2014, 44 p.  (ISBN 978-2-88908-229-2)
+Monsieur Benn, gladiateur, trad. Élisabeth Duval, Kaléidoscope, 2002, 32 p.  (ISBN 2-87767-346-4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>David_McKee</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/David_McKee</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Autres livres</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le Magicien et le sorcier (The Magician and the Sorcerer, 1974), Flammarion, 1974, 32 p.  (ISBN 2-08-170604-0)
 Bernard et le monstre, Gallimard jeunesse, coll. "Diablotins", 1981, 32 p.  (ISBN 2-07-056111-9). Rééd. Gallimard jeunesse, coll. "Folio benjamin" n° 144, 1986, 32 p.  (ISBN 2-07-039144-2). Rééd. dans 5 histoires pour avoir peur, Gallimard jeunesse, coll. "La Bibliothèque de Benjamin", 1994, 161 p.  (ISBN 2-07-034501-7)
 Noirs et blancs, Gallimard jeunesse, coll. "Diablotins", 1981, 32 p.  (ISBN 2-07-056143-7)
 Les Deux amiraux (Two Admirals), Gallimard jeunesse, coll. "Folio benjamin" n° 58, 1983, 32 p.  (ISBN 2-07-039058-6). Rééd. Gallimard jeunesse, coll. "Folio benjamin livres cassettes", 1988.  (ISBN 2-07-039188-4)
